--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Notch2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H2">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I2">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J2">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>9.85398405238125</v>
+        <v>0.6352507761783335</v>
       </c>
       <c r="R2">
-        <v>9.85398405238125</v>
+        <v>5.717256985605</v>
       </c>
       <c r="S2">
-        <v>0.0101518157609068</v>
+        <v>0.000506162198820147</v>
       </c>
       <c r="T2">
-        <v>0.0101518157609068</v>
+        <v>0.0005604376428901342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H3">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I3">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J3">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>119.1593819198536</v>
+        <v>7.465161526639667</v>
       </c>
       <c r="R3">
-        <v>119.1593819198536</v>
+        <v>67.186453739757</v>
       </c>
       <c r="S3">
-        <v>0.1227609142660992</v>
+        <v>0.005948174665135302</v>
       </c>
       <c r="T3">
-        <v>0.1227609142660992</v>
+        <v>0.006585993573992185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H4">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I4">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J4">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>216.5552050006781</v>
+        <v>16.17696392760556</v>
       </c>
       <c r="R4">
-        <v>216.5552050006781</v>
+        <v>145.59267534845</v>
       </c>
       <c r="S4">
-        <v>0.2231004770807427</v>
+        <v>0.0128896617507357</v>
       </c>
       <c r="T4">
-        <v>0.2231004770807427</v>
+        <v>0.0142718118146161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H5">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I5">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J5">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>321.6624792063994</v>
+        <v>19.770742795265</v>
       </c>
       <c r="R5">
-        <v>321.6624792063994</v>
+        <v>177.936685157385</v>
       </c>
       <c r="S5">
-        <v>0.331384565749401</v>
+        <v>0.01575315296072869</v>
       </c>
       <c r="T5">
-        <v>0.331384565749401</v>
+        <v>0.01744235332859297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.85242821478903</v>
+        <v>0.3512263333333334</v>
       </c>
       <c r="H6">
-        <v>5.85242821478903</v>
+        <v>1.053679</v>
       </c>
       <c r="I6">
-        <v>0.7951810566687203</v>
+        <v>0.0401332777415861</v>
       </c>
       <c r="J6">
-        <v>0.7951810566687203</v>
+        <v>0.04257802749770245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>104.6211618499299</v>
+        <v>6.320509637911334</v>
       </c>
       <c r="R6">
-        <v>104.6211618499299</v>
+        <v>37.923057827468</v>
       </c>
       <c r="S6">
-        <v>0.1077832838115707</v>
+        <v>0.005036126166166261</v>
       </c>
       <c r="T6">
-        <v>0.1077832838115707</v>
+        <v>0.003717431137611069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H7">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I7">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J7">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>2.538142205835826</v>
+        <v>12.42426670471833</v>
       </c>
       <c r="R7">
-        <v>2.538142205835826</v>
+        <v>111.818400342465</v>
       </c>
       <c r="S7">
-        <v>0.002614856276573765</v>
+        <v>0.009899545801141618</v>
       </c>
       <c r="T7">
-        <v>0.002614856276573765</v>
+        <v>0.01096106767239273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H8">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I8">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J8">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>30.69250516992713</v>
+        <v>146.0040054712757</v>
       </c>
       <c r="R8">
-        <v>30.69250516992713</v>
+        <v>1314.036049241481</v>
       </c>
       <c r="S8">
-        <v>0.03162017069131386</v>
+        <v>0.1163346999597263</v>
       </c>
       <c r="T8">
-        <v>0.03162017069131386</v>
+        <v>0.1288091943328362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H9">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I9">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J9">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>55.77925667261723</v>
+        <v>316.3898760082055</v>
       </c>
       <c r="R9">
-        <v>55.77925667261723</v>
+        <v>2847.50888407385</v>
       </c>
       <c r="S9">
-        <v>0.0574651566321444</v>
+        <v>0.2520966543137127</v>
       </c>
       <c r="T9">
-        <v>0.0574651566321444</v>
+        <v>0.2791288149399483</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.50744054177669</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H10">
-        <v>1.50744054177669</v>
+        <v>20.607907</v>
       </c>
       <c r="I10">
-        <v>0.2048189433312797</v>
+        <v>0.7849286692662342</v>
       </c>
       <c r="J10">
-        <v>0.2048189433312797</v>
+        <v>0.83274320824093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>82.85228697018839</v>
+        <v>386.677184271245</v>
       </c>
       <c r="R10">
-        <v>82.85228697018839</v>
+        <v>3480.094658441205</v>
       </c>
       <c r="S10">
-        <v>0.08535645564474775</v>
+        <v>0.3081009597528958</v>
       </c>
       <c r="T10">
-        <v>0.08535645564474775</v>
+        <v>0.3411384257034489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.869302333333334</v>
+      </c>
+      <c r="H11">
+        <v>20.607907</v>
+      </c>
+      <c r="I11">
+        <v>0.7849286692662342</v>
+      </c>
+      <c r="J11">
+        <v>0.83274320824093</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.995546</v>
+      </c>
+      <c r="N11">
+        <v>35.991092</v>
+      </c>
+      <c r="O11">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P11">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q11">
+        <v>123.6168461274073</v>
+      </c>
+      <c r="R11">
+        <v>741.7010767644441</v>
+      </c>
+      <c r="S11">
+        <v>0.09849680943875777</v>
+      </c>
+      <c r="T11">
+        <v>0.07270570559230383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J12">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.808665</v>
+      </c>
+      <c r="N12">
+        <v>5.425995</v>
+      </c>
+      <c r="O12">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P12">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q12">
+        <v>0.04247951196666667</v>
+      </c>
+      <c r="R12">
+        <v>0.3823156077</v>
+      </c>
+      <c r="S12">
+        <v>3.384729934720873E-05</v>
+      </c>
+      <c r="T12">
+        <v>3.747672328862857E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J13">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.254561</v>
+      </c>
+      <c r="N13">
+        <v>63.763683</v>
+      </c>
+      <c r="O13">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P13">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q13">
+        <v>0.4991987893533333</v>
+      </c>
+      <c r="R13">
+        <v>4.49278910418</v>
+      </c>
+      <c r="S13">
+        <v>0.0003977571792789202</v>
+      </c>
+      <c r="T13">
+        <v>0.0004404084234605504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J14">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N14">
+        <v>138.17555</v>
+      </c>
+      <c r="O14">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P14">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q14">
+        <v>1.081761028111111</v>
+      </c>
+      <c r="R14">
+        <v>9.735849252999998</v>
+      </c>
+      <c r="S14">
+        <v>0.0008619376175826197</v>
+      </c>
+      <c r="T14">
+        <v>0.0009543626289010697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J15">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.290605</v>
+      </c>
+      <c r="N15">
+        <v>168.871815</v>
+      </c>
+      <c r="O15">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P15">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q15">
+        <v>1.3220786761</v>
+      </c>
+      <c r="R15">
+        <v>11.8987080849</v>
+      </c>
+      <c r="S15">
+        <v>0.001053420593570664</v>
+      </c>
+      <c r="T15">
+        <v>0.00116637820012799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.00268373076588995</v>
+      </c>
+      <c r="J16">
+        <v>0.002847212308006627</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.995546</v>
+      </c>
+      <c r="N16">
+        <v>35.991092</v>
+      </c>
+      <c r="O16">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P16">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q16">
+        <v>0.4226553903866667</v>
+      </c>
+      <c r="R16">
+        <v>2.53593234232</v>
+      </c>
+      <c r="S16">
+        <v>0.0003367680761105372</v>
+      </c>
+      <c r="T16">
+        <v>0.0002485863322283882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.5074835</v>
+      </c>
+      <c r="H17">
+        <v>3.014967</v>
+      </c>
+      <c r="I17">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J17">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.808665</v>
+      </c>
+      <c r="N17">
+        <v>5.425995</v>
+      </c>
+      <c r="O17">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P17">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q17">
+        <v>2.7265326445275</v>
+      </c>
+      <c r="R17">
+        <v>16.359195867165</v>
+      </c>
+      <c r="S17">
+        <v>0.002172477091348763</v>
+      </c>
+      <c r="T17">
+        <v>0.0016036202665817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.50744054177669</v>
-      </c>
-      <c r="H11">
-        <v>1.50744054177669</v>
-      </c>
-      <c r="I11">
-        <v>0.2048189433312797</v>
-      </c>
-      <c r="J11">
-        <v>0.2048189433312797</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="N11">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="O11">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="P11">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="Q11">
-        <v>26.94781979586404</v>
-      </c>
-      <c r="R11">
-        <v>26.94781979586404</v>
-      </c>
-      <c r="S11">
-        <v>0.02776230408649991</v>
-      </c>
-      <c r="T11">
-        <v>0.02776230408649991</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5074835</v>
+      </c>
+      <c r="H18">
+        <v>3.014967</v>
+      </c>
+      <c r="I18">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J18">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>21.254561</v>
+      </c>
+      <c r="N18">
+        <v>63.763683</v>
+      </c>
+      <c r="O18">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P18">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q18">
+        <v>32.0409000072435</v>
+      </c>
+      <c r="R18">
+        <v>192.245400043461</v>
+      </c>
+      <c r="S18">
+        <v>0.02552990568135882</v>
+      </c>
+      <c r="T18">
+        <v>0.01884497393209743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5074835</v>
+      </c>
+      <c r="H19">
+        <v>3.014967</v>
+      </c>
+      <c r="I19">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J19">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N19">
+        <v>138.17555</v>
+      </c>
+      <c r="O19">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P19">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q19">
+        <v>69.43245390947499</v>
+      </c>
+      <c r="R19">
+        <v>416.59472345685</v>
+      </c>
+      <c r="S19">
+        <v>0.05532316505258768</v>
+      </c>
+      <c r="T19">
+        <v>0.04083695475688293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5074835</v>
+      </c>
+      <c r="H20">
+        <v>3.014967</v>
+      </c>
+      <c r="I20">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J20">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>56.290605</v>
+      </c>
+      <c r="N20">
+        <v>168.871815</v>
+      </c>
+      <c r="O20">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P20">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q20">
+        <v>84.8571582425175</v>
+      </c>
+      <c r="R20">
+        <v>509.142949455105</v>
+      </c>
+      <c r="S20">
+        <v>0.06761343301311304</v>
+      </c>
+      <c r="T20">
+        <v>0.04990905170174974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5074835</v>
+      </c>
+      <c r="H21">
+        <v>3.014967</v>
+      </c>
+      <c r="I21">
+        <v>0.1722543222262899</v>
+      </c>
+      <c r="J21">
+        <v>0.121831551953361</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.995546</v>
+      </c>
+      <c r="N21">
+        <v>35.991092</v>
+      </c>
+      <c r="O21">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P21">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q21">
+        <v>27.127988668491</v>
+      </c>
+      <c r="R21">
+        <v>108.511954673964</v>
+      </c>
+      <c r="S21">
+        <v>0.02161534138788159</v>
+      </c>
+      <c r="T21">
+        <v>0.0106369512960492</v>
       </c>
     </row>
   </sheetData>
